--- a/Book_Online_001/Res4/Report/Default.xlsx
+++ b/Book_Online_001/Res4/Report/Default.xlsx
@@ -14,6 +14,80 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+  <si>
+    <t>45 Minutes</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>Welcome2</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>51771admin</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
+  </si>
+  <si>
+    <t>https://preprod.recallmax.com/centralServer</t>
+  </si>
+  <si>
+    <t>https://stagingcentral1.recallmax.com/centralServer/request/admin/public/user/login.html</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Xray</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>TreatmentTime</t>
+  </si>
+  <si>
+    <t>.*Super.*</t>
+  </si>
+  <si>
+    <t>.*John Johnson.*</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>Dr. Doctor</t>
+  </si>
+  <si>
+    <t>51779admin</t>
+  </si>
+  <si>
+    <t>50173admin</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
@@ -154,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -162,13 +236,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -467,18 +574,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row ht="15.1" customFormat="1">
+      <c t="s">
+        <v>1</v>
+      </c>
+      <c t="s">
+        <v>4</v>
+      </c>
+      <c t="s">
+        <v>12</v>
+      </c>
+      <c t="s">
+        <v>21</v>
+      </c>
+      <c t="s">
+        <v>6</v>
+      </c>
+      <c t="s">
+        <v>7</v>
+      </c>
+      <c t="s">
+        <v>17</v>
+      </c>
+      <c t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row ht="15.1">
+      <c s="1" t="s">
+        <v>3</v>
+      </c>
+      <c s="1" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" t="s">
+        <v>8</v>
+      </c>
+      <c s="1" t="s">
+        <v>10</v>
+      </c>
+      <c s="1" t="s">
+        <v>15</v>
+      </c>
+      <c s="1"/>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>3</v>
+      </c>
+      <c s="1" t="s">
+        <v>5</v>
+      </c>
+      <c s="1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" t="s">
+        <v>9</v>
+      </c>
+      <c s="4" t="s">
+        <v>13</v>
+      </c>
+      <c s="1" t="s">
+        <v>16</v>
+      </c>
+      <c s="1"/>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>22</v>
+      </c>
+      <c s="1" t="s">
+        <v>19</v>
+      </c>
+      <c s="1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" t="s">
+        <v>9</v>
+      </c>
+      <c s="4" t="s">
+        <v>11</v>
+      </c>
+      <c s="1" t="s">
+        <v>16</v>
+      </c>
+      <c s="1" t="s">
+        <v>18</v>
+      </c>
+      <c s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -494,7 +704,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>
